--- a/data/trans_media/IQ3002_MoAR-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ3002_MoAR-Edad-trans_media.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según la edad en meses en la que empezaron a comer cereales con gluten</t>
+          <t>Meses en la que empezaron a comer cereales con gluten</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 7,3</t>
+          <t>6,43; 7,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 8,2</t>
+          <t>7,3; 8,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,54; 7,44</t>
+          <t>6,54; 7,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 7,68</t>
+          <t>6,6; 7,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 8,57</t>
+          <t>7,53; 8,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,68; 7,81</t>
+          <t>6,67; 7,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 7,29</t>
+          <t>6,63; 7,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,56; 8,26</t>
+          <t>7,55; 8,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 7,44</t>
+          <t>6,7; 7,44</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,45; 7,3</t>
+          <t>6,43; 7,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,26; 8,2</t>
+          <t>7,3; 8,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 7,44</t>
+          <t>6,54; 7,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 7,68</t>
+          <t>6,6; 7,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,5; 8,57</t>
+          <t>7,53; 8,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,68; 7,81</t>
+          <t>6,67; 7,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 7,29</t>
+          <t>6,63; 7,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 8,26</t>
+          <t>7,55; 8,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 7,44</t>
+          <t>6,7; 7,44</t>
         </is>
       </c>
     </row>
